--- a/biology/Zoologie/Brachytarsophrys/Brachytarsophrys.xlsx
+++ b/biology/Zoologie/Brachytarsophrys/Brachytarsophrys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachytarsophrys est un genre d'amphibiens de la famille des Megophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachytarsophrys est un genre d'amphibiens de la famille des Megophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 5 espèces de ce genre se rencontrent dans le sud de la République populaire de Chine, en Birmanie, ainsi que dans le nord de la Thaïlande et dans le Nord du Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 5 espèces de ce genre se rencontrent dans le sud de la République populaire de Chine, en Birmanie, ainsi que dans le nord de la Thaïlande et dans le Nord du Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (19 novembre 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (19 novembre 2016) :
 Brachytarsophrys carinense (Boulenger, 1889)
 Brachytarsophrys chuannanensis Fei, Ye &amp; Huang, 2001
 Brachytarsophrys feae (Boulenger, 1887)
@@ -577,7 +593,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tian &amp; Hu, 1983 : Taxonomic study on genus Megophrys, with descriptions of two new genera. Acta Herpetologica Sinica, New Series, Chengdu, vol. 2, no 2, p. 41-48.</t>
         </is>
